--- a/data/trans_dic/P36B08_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,15; 73,77</t>
+          <t>65,99; 74,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,01; 81,92</t>
+          <t>73,1; 81,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,24; 82,94</t>
+          <t>74,52; 83,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,15; 97,65</t>
+          <t>94,04; 97,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,36; 79,34</t>
+          <t>69,13; 78,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,97; 90,85</t>
+          <t>82,59; 91,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,71; 86,24</t>
+          <t>77,34; 86,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>97,02; 99,22</t>
+          <t>97,0; 99,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,33; 75,06</t>
+          <t>68,53; 74,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,7; 84,48</t>
+          <t>78,36; 84,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,03; 83,21</t>
+          <t>77,34; 83,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,96; 98,17</t>
+          <t>95,98; 98,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,5; 69,87</t>
+          <t>58,65; 69,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,39; 79,22</t>
+          <t>70,77; 79,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,71; 82,35</t>
+          <t>74,02; 82,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,78; 97,19</t>
+          <t>92,64; 97,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,03; 73,6</t>
+          <t>63,69; 73,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,98; 83,19</t>
+          <t>74,03; 83,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,69; 82,95</t>
+          <t>74,33; 82,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,3; 98,33</t>
+          <t>94,16; 98,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,0; 70,18</t>
+          <t>63,19; 70,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,49; 80,05</t>
+          <t>73,2; 79,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,98; 81,85</t>
+          <t>75,96; 81,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,4; 97,42</t>
+          <t>94,38; 97,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,09; 66,75</t>
+          <t>58,04; 66,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,82; 77,73</t>
+          <t>70,49; 77,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,03; 74,0</t>
+          <t>65,64; 73,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,23; 99,11</t>
+          <t>94,31; 99,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,26; 76,39</t>
+          <t>62,03; 76,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,26; 85,34</t>
+          <t>75,45; 85,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,06; 85,46</t>
+          <t>72,69; 85,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,52; 97,44</t>
+          <t>91,77; 97,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,51; 67,43</t>
+          <t>60,09; 67,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,87; 78,86</t>
+          <t>73,09; 78,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,07; 75,94</t>
+          <t>68,84; 75,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>94,39; 98,79</t>
+          <t>94,34; 98,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,65; 67,19</t>
+          <t>61,94; 67,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,92; 73,51</t>
+          <t>68,2; 73,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,31; 73,55</t>
+          <t>68,18; 73,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92,01; 95,24</t>
+          <t>91,87; 95,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,7; 74,28</t>
+          <t>67,72; 74,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,18; 81,42</t>
+          <t>74,83; 81,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,95; 78,81</t>
+          <t>72,73; 78,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,33; 98,07</t>
+          <t>94,36; 98,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,92; 68,86</t>
+          <t>64,95; 69,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,65; 75,8</t>
+          <t>71,69; 75,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 75,13</t>
+          <t>70,96; 75,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,72; 96,57</t>
+          <t>93,71; 96,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,75; 63,56</t>
+          <t>53,25; 64,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,61; 74,59</t>
+          <t>65,84; 74,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,86; 76,07</t>
+          <t>68,89; 76,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,65; 94,53</t>
+          <t>88,9; 94,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,8; 74,83</t>
+          <t>66,5; 74,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,67; 81,66</t>
+          <t>75,57; 81,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,57; 80,93</t>
+          <t>75,19; 81,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,95; 96,85</t>
+          <t>93,99; 96,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62,87; 69,31</t>
+          <t>63,12; 69,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,81; 77,74</t>
+          <t>72,99; 77,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,13; 77,89</t>
+          <t>72,99; 77,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>92,83; 95,7</t>
+          <t>92,61; 95,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,13; 57,62</t>
+          <t>45,82; 57,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,98; 56,76</t>
+          <t>44,06; 56,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,22; 67,73</t>
+          <t>56,74; 68,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 94,0</t>
+          <t>80,38; 94,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,46; 73,49</t>
+          <t>68,78; 73,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,97; 81,1</t>
+          <t>76,44; 81,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,74; 77,94</t>
+          <t>72,84; 78,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>91,89; 96,07</t>
+          <t>92,11; 96,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,91; 69,82</t>
+          <t>65,11; 69,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>70,96; 75,58</t>
+          <t>70,8; 75,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>70,37; 75,23</t>
+          <t>70,36; 75,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,44; 95,11</t>
+          <t>90,44; 95,06</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1565,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,55; 64,96</t>
+          <t>61,57; 64,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,5; 72,73</t>
+          <t>69,58; 72,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,79; 73,84</t>
+          <t>70,77; 73,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,29; 95,87</t>
+          <t>93,36; 95,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,42; 72,62</t>
+          <t>69,58; 72,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,95</t>
+          <t>78,16; 80,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,27 +1600,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,17; 96,73</t>
+          <t>95,17; 96,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>65,98; 68,28</t>
+          <t>65,98; 68,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,38; 76,54</t>
+          <t>74,47; 76,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,89; 76,0</t>
+          <t>73,75; 75,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,01</t>
+          <t>94,46; 95,91</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>330866</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>337475</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>339337</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>486122</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>228355</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>273155</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>283942</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>440569</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>559222</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>610630</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>623279</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>926691</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>312077; 354001</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>318085; 355342</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>319762; 356499</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>475102; 493506</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>212007; 242142</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>258095; 284701</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>267646; 298402</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>434032; 444188</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>534260; 583711</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>585873; 632659</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>599501; 643353</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>914419; 934631</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>236204</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>314352</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>295700</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>430661</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>256126</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>264180</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>291184</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>370159</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>492330</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>578532</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>586884</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>800821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>215196; 254249</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>295649; 331891</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>278413; 311867</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>418279; 438823</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>236837; 273153</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>248078; 278888</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>273472; 305303</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>359413; 375395</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>466837; 518349</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>551091; 602225</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>565153; 610004</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>786424; 810759</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>338306</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>467802</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>365258</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>647127</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>116689</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>210078</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>131496</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>158735</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>454994</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>677880</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>496753</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>805862</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>314791; 358726</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>443644; 489159</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>342585; 385390</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>630224; 662501</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>104078; 128331</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>196266; 221702</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>120066; 140841</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>153177; 162792</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>426755; 477442</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>650175; 702352</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>472982; 521248</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>787941; 824413</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>801074</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>819012</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>808986</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>969591</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>507872</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>596960</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>625717</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>939095</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1308947</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1415972</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1434702</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1908685</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>767023; 829723</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>788418; 850562</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>776359; 837083</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>949088; 985039</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>483708; 531857</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>570809; 618484</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>599168; 649300</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>922419; 957946</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1268153; 1350485</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1375594; 1455632</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1392648; 1474767</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1884087; 1941014</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>205435</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>359133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>447365</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>437662</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>402704</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>598529</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>574456</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>801800</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>608138</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>957662</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1021821</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1239463</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>186662; 225103</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>335481; 378709</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>424846; 468719</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>421400; 448747</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>377512; 422306</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>574589; 621202</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>553502; 597139</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>789501; 813249</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>579638; 637693</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>926921; 986103</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>987438; 1052269</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1216832; 1254711</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>154351</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>133613</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>179102</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>213509</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>889824</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>873883</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>813092</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>718749</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1044175</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1007496</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>992194</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>932258</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>136647; 170918</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>117583; 149614</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>162308; 194987</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>193331; 227213</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>858847; 921526</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>847991; 900589</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>783593; 841922</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>700337; 730743</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1007247; 1082044</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>974376; 1039257</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>958195; 1022104</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>905073; 951379</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3127</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2547</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4868</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8170</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2066236</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2431387</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2435748</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3184673</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2401570</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2816785</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2719886</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3429108</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4467806</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5248172</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5155634</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6613779</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2012801; 2124111</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2375830; 2487434</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2383930; 2486250</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3148621; 3227181</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2349691; 2449331</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2767026; 2864474</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2672256; 2772474</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3401206; 3457974</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4385618; 4546152</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5179617; 5324471</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5076745; 5227341</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>6561642; 6662392</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>